--- a/data/trans_bre/P36B02_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P36B02_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.068234462135356</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.824904531538075</v>
+        <v>2.824904531538053</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06472777285838749</v>
@@ -649,7 +649,7 @@
         <v>0.04533571920083301</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.03331805899768088</v>
+        <v>0.03331805899768061</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.505252674920108</v>
+        <v>2.326794920158122</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0826975419088533</v>
+        <v>0.01338934893801885</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.863416486208824</v>
+        <v>1.775155007495123</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.018086941853746</v>
+        <v>-1.445535420839648</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02818483245866132</v>
+        <v>0.02589643113528793</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0009989844575966065</v>
+        <v>0.0001237446496002916</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02035911052112238</v>
+        <v>0.01946460223061295</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.01205743423647045</v>
+        <v>-0.0155428045424862</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.147023242867606</v>
+        <v>8.973909637532405</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.110874658447916</v>
+        <v>4.971576592684081</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.563630923220954</v>
+        <v>6.552329081977791</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.299024634592281</v>
+        <v>6.792090795163309</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1082483921071562</v>
+        <v>0.1066473072982379</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05849905239927981</v>
+        <v>0.05626447389198708</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07483725368631282</v>
+        <v>0.07428599496397559</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.08851904777428068</v>
+        <v>0.08299832750349119</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.591654504056927</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.217752877551038</v>
+        <v>2.217752877551016</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00296172393581874</v>
@@ -749,7 +749,7 @@
         <v>0.01712826102686607</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.02539369302878523</v>
+        <v>0.02539369302878497</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.742556413111553</v>
+        <v>-1.852907849036476</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.650189805936408</v>
+        <v>-2.80795751568587</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.622107971583002</v>
+        <v>-0.6527679924092347</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.5550176853850503</v>
+        <v>-0.4057173443411929</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01816008787377708</v>
+        <v>-0.0195352338452042</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.0277215590672677</v>
+        <v>-0.0293555074004096</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.006595525386815959</v>
+        <v>-0.006931206003967357</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.006142373221654754</v>
+        <v>-0.004453150843915837</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.365334594989756</v>
+        <v>2.211226834626194</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.907380019209194</v>
+        <v>1.656593626874913</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.695266765921307</v>
+        <v>4.020521705130788</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.226989328049952</v>
+        <v>5.361745305287009</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02551899041444172</v>
+        <v>0.02368833528653633</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02032237323567401</v>
+        <v>0.01769796171960617</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04021645745201852</v>
+        <v>0.04408238628356482</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.06096310141372746</v>
+        <v>0.06302838246598791</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.9899140001401907</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.321800508289751</v>
+        <v>2.321800508289762</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01491707923352034</v>
@@ -849,7 +849,7 @@
         <v>0.01062451217602063</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.02672362359292345</v>
+        <v>0.02672362359292357</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6396350372000082</v>
+        <v>-0.7498082460185266</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.603635668969974</v>
+        <v>-1.616846991108838</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.519716992999688</v>
+        <v>-1.221350149978922</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7441068599544325</v>
+        <v>-0.6185259636839385</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.007030375015847456</v>
+        <v>-0.007815556638287396</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.0166039934954031</v>
+        <v>-0.0166958529386239</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.01611353423818193</v>
+        <v>-0.01293524422099611</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.00838869400216086</v>
+        <v>-0.006814970938102447</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.205896316602487</v>
+        <v>3.241831453797327</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.315132557279882</v>
+        <v>2.202197478257891</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.27665548854019</v>
+        <v>3.620414490049157</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.244913068566345</v>
+        <v>5.24762035556838</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.03464397687064211</v>
+        <v>0.03483583470724458</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02461781287817779</v>
+        <v>0.02327502963286864</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03522533923729003</v>
+        <v>0.03952845403767023</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.0620848478155543</v>
+        <v>0.06175665194141492</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.975153008245188</v>
+        <v>-2.660854314036206</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.752305620809963</v>
+        <v>-1.624617210526784</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.513222640375761</v>
+        <v>-1.533595599095358</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.265589723111816</v>
+        <v>-3.166174270915799</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03091633978666487</v>
+        <v>-0.02784498879911981</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.01832683875893043</v>
+        <v>-0.01698856955356557</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01605425114094317</v>
+        <v>-0.01666838770035459</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03574624685616476</v>
+        <v>-0.03533677960958027</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.483850757430349</v>
+        <v>3.522752609304136</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.47308378969201</v>
+        <v>4.002878564790827</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.433565281122439</v>
+        <v>5.428279939553254</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.716604868088667</v>
+        <v>2.930628035340449</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03718352311231466</v>
+        <v>0.03771317097207447</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0494042399819196</v>
+        <v>0.04311309874642587</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06065350729892251</v>
+        <v>0.06101797779504308</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.03118681293735146</v>
+        <v>0.03391847683841224</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.309239244997618</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.597136196543936</v>
+        <v>1.597136196543947</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01530078938514442</v>
@@ -1049,7 +1049,7 @@
         <v>0.02517808776408966</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.01828633372855431</v>
+        <v>0.01828633372855443</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2230310131575484</v>
+        <v>0.2987753087741899</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.343286057335832</v>
+        <v>-0.3962244522970852</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9883208291346152</v>
+        <v>1.014991264712366</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07958803861052735</v>
+        <v>0.1872754201247776</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.00238514580436869</v>
+        <v>0.003042784556596065</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.003661608605035346</v>
+        <v>-0.00420899645468197</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01069006234616823</v>
+        <v>0.0109897087048516</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.0009100171350735578</v>
+        <v>0.002114728055287654</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.669947819828244</v>
+        <v>2.679589233528444</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.145252150992974</v>
+        <v>2.067899913292735</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.575665095817983</v>
+        <v>3.47063983763265</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.33066260975398</v>
+        <v>3.279045439711482</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.02886885828868004</v>
+        <v>0.02895608694777766</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02317599923108767</v>
+        <v>0.02246082930625431</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03941969282275203</v>
+        <v>0.03823757090826512</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.03862526060038407</v>
+        <v>0.0378633779677406</v>
       </c>
     </row>
     <row r="19">
